--- a/2.5 Татьянка.xlsx
+++ b/2.5 Татьянка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33640b71d0d1a9ee/Документы/МЕКС/ИП Есипов/Клиенты/2024/АВИТО/Самара Николай 89171182373/№ 4546630243/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc3664ec3c8aba1/!PROGRAMMING/!WORK/Excel_to_KML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE678D23-B64C-4EE3-9780-E5DEA14BE4DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5 Татьянка" sheetId="1" r:id="rId1"/>
@@ -952,9 +952,6 @@
     <t> Озеро озеро, сообщающееся с р.Татьянка, КАС/ВОЛГА/1395/0003(11010001511199900000090)</t>
   </si>
   <si>
-    <t> Самарская область, Волжский район, п. Красный Кряжок, на левом берегу р. Татьянка (между земельными участками с кадастровыми номерами 63:17:0000000:3726 и 63:17:000000000:3725 1: 53°8′5.35146′′ СШ 50°2′19.77751′′ ВД, 2: 53°8′5.9733′′ СШ 50°2′20.98261′′ ВД, 3: 53°8′4.99884′′ СШ 50°2′22.766′′ ВД, 4: 53°8′4.9357′′ СШ 50°2′23.88339′′ ВД, 5: 53°8′4.72267′′ СШ 50°2′25.24202′′ ВД, 6: 53°8′4.27629′′ СШ 50°2′28.25842′′ ВД, 7: 53°8′4.15925′′ СШ 50°2′29.32021′′ ВД, 8: 53°8′3.82323′′ СШ 50°2′30.34083′′ ВД, 9: 53°8′3.34136′′ СШ 50°2′31.20311′′ ВД, 10: 53°8′2.86602′′ СШ 50°2′31.6761′′ ВД, 11: 53°8′2.28169′′ СШ 50°2′31.87811′′ ВД, 12: 53°8′1.51781′′ СШ 50°2′31.58482′′ ВД, 13: 53°8′1.17401′′ СШ 50°2′31.00282′′ ВД, 14: 53°8′0.98132′′ СШ 50°2′29.95747′′ ВД, 15: 53°8′0.9522′′ СШ 50°2′29.15532′′ ВД, 16: 53°8′1.20195′′ СШ 50°2′27.70184′′ ВД, 17: 53°8′1.56366′′ СШ 50°2′26.16705′′ ВД, 18: 53°8′2.06352′′ СШ 50°2′24.51608′′ ВД, 19: 53°8′3.23235′′ СШ 50°2′20.72156′′ ВД, 20: 53°8′3.47098′′ СШ 50°2′18.32052′′ ВД, 21: 53°8′4.00463′′ СШ 50°2′18.21948′′ ВД, 22: 53°8′4.51939′′ СШ 50°2′18.70808′′ ВД</t>
-  </si>
-  <si>
     <t>Использование акватории водных объектов, в том числе для рекреационных целей (без аукциона)</t>
   </si>
   <si>
@@ -1082,6 +1079,9 @@
   </si>
   <si>
     <t> 63-11.01.00.015-Р-ДРБВ-С-2015-00736/03</t>
+  </si>
+  <si>
+    <t>Самарская область, Волжский район, п. Красный Кряжок, на левом берегу р. Татьянка (между земельными участками с кадастровыми номерами 63:17:0000000:3726 и 63:17:000000000:3725 1: 53°8'5.35146" СШ 50°2'19.77751" ВД, 2: 53°8'5.9733" СШ 50°2'20.98261" ВД, 3: 53°8'4.99884" СШ 50°2'22.766" ВД, 4: 53°8'4.9357" СШ 50°2'23.88339" ВД, 5: 53°8'4.72267" СШ 50°2'25.24202" ВД, 6: 53°8'4.27629" СШ 50°2'28.25842" ВД, 7: 53°8'4.15925" СШ 50°2'29.32021" ВД, 8: 53°8'3.82323" СШ 50°2'30.34083" ВД, 9: 53°8'3.34136" СШ 50°2'31.20311" ВД, 10: 53°8'2.86602" СШ 50°2'31.6761" ВД, 11: 53°8'2.28169" СШ 50°2'31.87811" ВД, 12: 53°8'1.51781" СШ 50°2'31.58482" ВД, 13: 53°8'1.17401" СШ 50°2'31.00282" ВД, 14: 53°8'0.98132" СШ 50°2'29.95747" ВД, 15: 53°8'0.9522" СШ 50°2'29.15532" ВД, 16: 53°8'1.20195" СШ 50°2'27.70184" ВД, 17: 53°8'1.56366" СШ 50°2'26.16705" ВД, 18: 53°8'2.06352" СШ 50°2'24.51608" ВД, 19: 53°8'3.23235" СШ 50°2'20.72156" ВД, 20: 53°8'3.47098" СШ 50°2'18.32052" ВД, 21: 53°8'4.00463" СШ 50°2'18.21948" ВД, 22: 53°8'4.51939" СШ 50°2'18.70808" ВД</t>
   </si>
 </sst>
 </file>
@@ -1700,19 +1700,19 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2092,89 +2092,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715CD54F-3B1D-41DD-A4FA-B385F158C707}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:20" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="7" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+    <row r="4" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2199,10 +2201,10 @@
       <c r="R4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>153</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>216</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>218</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>386</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>407</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>473</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>737</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>772</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>792</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>817</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>836</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>930</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>972</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>982</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1022</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1036</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1084</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1164</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1201</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1222</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1230</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1231</v>
       </c>
@@ -3388,7 +3390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1244</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1373</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="216" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1374</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="138" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1377</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1378</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1396</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="216" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1397</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1398</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1461</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="324" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1478</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1525</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1656</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="189" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1854</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1886</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1900</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1959</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1972</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1988</v>
       </c>
@@ -4296,7 +4298,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2009</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2151</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2207</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="324" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2208</v>
       </c>
@@ -4490,7 +4492,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2212</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2226</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2233</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2234</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2248</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2316</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="216" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2318</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2334</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2335</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="138" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2338</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2343</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2355</v>
       </c>
@@ -5088,7 +5090,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2396</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2398</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2407</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2408</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2483</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2531</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2545</v>
       </c>
@@ -5440,7 +5442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2615</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2621</v>
       </c>
@@ -5544,7 +5546,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="138" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2640</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2707</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2763</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2834</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2889</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2901</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2982</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2998</v>
       </c>
@@ -5948,7 +5950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2999</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>3047</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>3048</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>3197</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>3275</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>3276</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>3284</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>3285</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>3366</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>3373</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>3389</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>3400</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>3412</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1357</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1356</v>
       </c>
@@ -6718,7 +6720,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>3682</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="243" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>6005</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="386.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="378" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>6867</v>
       </c>
@@ -6849,10 +6851,10 @@
         <v>299</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>248</v>
@@ -6864,7 +6866,7 @@
         <v>218</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -6879,10 +6881,10 @@
         <v>49533</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="248.4" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="243" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>7092</v>
       </c>
@@ -6901,22 +6903,22 @@
         <v>252</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -6931,10 +6933,10 @@
         <v>49064</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>7107</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>252</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>257</v>
@@ -6962,13 +6964,13 @@
         <v>248</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -6983,10 +6985,10 @@
         <v>49674</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>7380</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>252</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>257</v>
@@ -7014,13 +7016,13 @@
         <v>248</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>133</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -7035,10 +7037,10 @@
         <v>48944</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>8037</v>
       </c>
@@ -7087,10 +7089,10 @@
         <v>45170</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>8039</v>
       </c>
@@ -7139,21 +7141,21 @@
         <v>45170</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>17426</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C103" s="4">
         <v>44866</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E103" s="4">
         <v>44855</v>
@@ -7165,7 +7167,7 @@
         <v>221</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>262</v>
@@ -7174,18 +7176,18 @@
         <v>248</v>
       </c>
       <c r="K103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L103" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="M103" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q103" s="4">
         <v>44866</v>
@@ -7197,10 +7199,10 @@
         <v>52171</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>24645</v>
       </c>
@@ -7219,22 +7221,22 @@
         <v>252</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>162</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -7249,21 +7251,21 @@
         <v>48809</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>30962</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C105" s="4">
         <v>45163</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E105" s="4">
         <v>45155</v>
@@ -7275,7 +7277,7 @@
         <v>221</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>247</v>
@@ -7284,7 +7286,7 @@
         <v>248</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>44</v>
@@ -7293,7 +7295,7 @@
         <v>280</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
@@ -7307,15 +7309,15 @@
         <v>52468</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>33694</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C106" s="4">
         <v>45224</v>
@@ -7333,7 +7335,7 @@
         <v>221</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>262</v>
@@ -7342,16 +7344,16 @@
         <v>248</v>
       </c>
       <c r="K106" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q106" s="4">
         <v>45224</v>
@@ -7363,15 +7365,15 @@
         <v>52529</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>34269</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C107" s="4">
         <v>45239</v>
@@ -7387,7 +7389,7 @@
         <v>221</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>257</v>
@@ -7396,13 +7398,13 @@
         <v>248</v>
       </c>
       <c r="K107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L107" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L107" s="3" t="s">
+      <c r="M107" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -7417,11 +7419,17 @@
         <v>48944</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
@@ -7431,12 +7439,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2.5 Татьянка.xlsx
+++ b/2.5 Татьянка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc3664ec3c8aba1/!PROGRAMMING/!WORK/Excel_to_KML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE678D23-B64C-4EE3-9780-E5DEA14BE4DF}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA09E1B-C224-4497-B9D6-5D5F7775086C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5 Татьянка" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="336">
   <si>
     <t>2.2.1 Государственная регистрация. (форма 2.5-гвр)</t>
   </si>
@@ -923,30 +923,6 @@
   </si>
   <si>
     <t> 63-11.01.00.015-Р-ДЗИО-С-2022-03682/00 Передача прав и обязанностей по договору водопользования № 63-11.01.00.015-Р-ДЗИО-С-2017-01015/00 от 10.01.2017г. "Правообладатель" ООО "КВ Холдинг"</t>
-  </si>
-  <si>
-    <t>Р031-00133-63/00924773</t>
-  </si>
-  <si>
-    <t>63-11.01.00.015-Р-ДЗИО-Т-2022-06005/00</t>
-  </si>
-  <si>
-    <t>  МСК-63 зона 1 озеро Молочный Ерик, сообщающееся с рекой Татьянкой в подпоре Саратовского водохранилища, Волжский район / Куйбышевский район, г.о. Самара, Самарская область, на 1395 км от устья р.Волга, на 9 км от устья р. Татьянки, 53°08΄36.30968˝ С.Ш 50°01΄14.55545˝ В.Д. 1: 381704.54м., 1336170.69м.</t>
-  </si>
-  <si>
-    <t>НЕКОММЕРЧЕСКОЕ САДОВОДЧЕСКОЕ ТОВАРИЩЕСТВО "РАДУГА" (НСТ "РАДУГА")</t>
-  </si>
-  <si>
-    <t> 6367045254</t>
-  </si>
-  <si>
-    <t> 01.25.1</t>
-  </si>
-  <si>
-    <t>2022 (2кв.): 21.0; 2022 (3кв.): 19.0; 2023 (2кв.): 21.0; 2023 (3кв.): 19.0; 2024 (2кв.): 21.0; 2024 (3кв.): 19.0; 2025 (2кв.): 21.0; 2025 (3кв.): 19.0; 2026 (2кв.): 21.0; 2026 (3кв.): 19.0; 2027 (2кв.): 21.0; 2027 (3кв.): 19.0; 2028 (2кв.): 21.0; 2028 (3кв.): 19.0; 2029 (2кв.): 21.0; 2029 (3кв.): 19.0; 2030 (2кв.): 21.0; 2030 (3кв.): 19.0; 2031 (2кв.): 21.0; 2031 (3кв.): 19.0; 2032 (2кв.): 21.0; 2032 (3кв.): 19.0; 2033 (2кв.): 21.0; 2033 (3кв.): 19.0; 2034 (2кв.): 21.0; 2034 (3кв.): 19.0; 2035 (2кв.): 21.0; 2035 (3кв.): 19.0; 2036 (2кв.): 21.0; 2036 (3кв.): 19.0; 2037 (2кв.): 21.0; 2037 (3кв.): 19.0; 2038 (2кв.): 21.0; 2038 (3кв.): 19.0; 2039 (2кв.): 21.0; 2039 (3кв.): 19.0; 2040 (2кв.): 21.0; 2040 (3кв.): 19.0; 2041 (2кв.): 21.0; 2041 (3кв.): 19.0; 2042 (2кв.): 21.0;</t>
-  </si>
-  <si>
-    <t> 63-11.01.00.015-Р-ДЗИО-Т-2022-06005/00</t>
   </si>
   <si>
     <t> Озеро озеро, сообщающееся с р.Татьянка, КАС/ВОЛГА/1395/0003(11010001511199900000090)</t>
@@ -1773,6 +1749,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2090,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715CD54F-3B1D-41DD-A4FA-B385F158C707}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6774,71 +6754,65 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="243" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="378" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>6005</v>
-      </c>
-      <c r="B96" s="3" t="s">
+        <v>6867</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4">
+        <v>44719</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4">
+        <v>44707</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C96" s="4">
-        <v>44711</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E96" s="4">
-        <v>44698</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="4">
-        <v>44711</v>
+        <v>42307</v>
       </c>
       <c r="R96" s="4">
-        <v>52016</v>
+        <v>49533</v>
       </c>
       <c r="S96" s="4">
-        <v>52016</v>
+        <v>49533</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="378" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="243" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>6867</v>
+        <v>7092</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="4">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4">
@@ -6848,45 +6822,45 @@
         <v>56</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="4">
-        <v>42307</v>
+        <v>41789</v>
       </c>
       <c r="R97" s="4">
-        <v>49533</v>
+        <v>49064</v>
       </c>
       <c r="S97" s="4">
-        <v>49533</v>
+        <v>49064</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="243" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>7092</v>
+        <v>7107</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="4">
@@ -6903,50 +6877,50 @@
         <v>252</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="4">
-        <v>41789</v>
+        <v>42779</v>
       </c>
       <c r="R98" s="4">
-        <v>49064</v>
+        <v>49674</v>
       </c>
       <c r="S98" s="4">
-        <v>49064</v>
+        <v>49674</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>7107</v>
+        <v>7380</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="4">
-        <v>44720</v>
+        <v>44722</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4">
-        <v>44707</v>
+        <v>44711</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>56</v>
@@ -6955,7 +6929,7 @@
         <v>252</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>257</v>
@@ -6964,85 +6938,85 @@
         <v>248</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="4">
-        <v>42779</v>
+        <v>42213</v>
       </c>
       <c r="R99" s="4">
-        <v>49674</v>
+        <v>48944</v>
       </c>
       <c r="S99" s="4">
-        <v>49674</v>
+        <v>48944</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>7380</v>
+        <v>8037</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="4">
-        <v>44722</v>
+        <v>44729</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4">
-        <v>44711</v>
+        <v>44714</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="4">
-        <v>42213</v>
+        <v>40451</v>
       </c>
       <c r="R100" s="4">
-        <v>48944</v>
+        <v>45170</v>
       </c>
       <c r="S100" s="4">
-        <v>48944</v>
+        <v>45170</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>8037</v>
+        <v>8039</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="4">
@@ -7059,10 +7033,10 @@
         <v>221</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>248</v>
@@ -7083,192 +7057,198 @@
         <v>40451</v>
       </c>
       <c r="R101" s="4">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="S101" s="4">
         <v>45170</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>8039</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>17426</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="C102" s="4">
-        <v>44729</v>
-      </c>
-      <c r="D102" s="3"/>
+        <v>44866</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="E102" s="4">
-        <v>44714</v>
+        <v>44855</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>221</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="Q102" s="4">
-        <v>40451</v>
+        <v>44866</v>
       </c>
       <c r="R102" s="4">
-        <v>44805</v>
+        <v>52171</v>
       </c>
       <c r="S102" s="4">
-        <v>45170</v>
+        <v>52171</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>17426</v>
-      </c>
-      <c r="B103" s="3" t="s">
+        <v>24645</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="4">
+        <v>45021</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4">
+        <v>45007</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="4">
-        <v>44866</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E103" s="4">
-        <v>44855</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="I103" s="3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="3" t="s">
-        <v>321</v>
-      </c>
+      <c r="P103" s="3"/>
       <c r="Q103" s="4">
-        <v>44866</v>
+        <v>42213</v>
       </c>
       <c r="R103" s="4">
-        <v>52171</v>
+        <v>48809</v>
       </c>
       <c r="S103" s="4">
-        <v>52171</v>
+        <v>48809</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>24645</v>
-      </c>
-      <c r="B104" s="3"/>
+        <v>30962</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="C104" s="4">
-        <v>45021</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>45163</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="E104" s="4">
-        <v>45007</v>
+        <v>45155</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N104" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="4">
-        <v>42213</v>
+        <v>45163</v>
       </c>
       <c r="R104" s="4">
-        <v>48809</v>
+        <v>52468</v>
       </c>
       <c r="S104" s="4">
-        <v>48809</v>
+        <v>52468</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>30962</v>
+        <v>33694</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C105" s="4">
-        <v>45163</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>327</v>
+        <v>45224</v>
+      </c>
+      <c r="D105" s="3">
+        <v>278</v>
       </c>
       <c r="E105" s="4">
-        <v>45155</v>
+        <v>45219</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>56</v>
@@ -7277,56 +7257,52 @@
         <v>221</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K105" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>45224</v>
+      </c>
+      <c r="R105" s="4">
+        <v>52529</v>
+      </c>
+      <c r="S105" s="4">
+        <v>52529</v>
+      </c>
+      <c r="T105" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="L105" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="N105" s="3" t="s">
+    </row>
+    <row r="106" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>34269</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="4">
-        <v>45163</v>
-      </c>
-      <c r="R105" s="4">
-        <v>52468</v>
-      </c>
-      <c r="S105" s="4">
-        <v>52468</v>
-      </c>
-      <c r="T105" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>33694</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="C106" s="4">
-        <v>45224</v>
-      </c>
-      <c r="D106" s="3">
-        <v>278</v>
-      </c>
+        <v>45239</v>
+      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="4">
-        <v>45219</v>
+        <v>45233</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>56</v>
@@ -7335,91 +7311,37 @@
         <v>221</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M106" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
-      <c r="P106" s="3" t="s">
-        <v>336</v>
-      </c>
+      <c r="P106" s="3"/>
       <c r="Q106" s="4">
-        <v>45224</v>
+        <v>42213</v>
       </c>
       <c r="R106" s="4">
-        <v>52529</v>
+        <v>48944</v>
       </c>
       <c r="S106" s="4">
-        <v>52529</v>
+        <v>48944</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="162" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>34269</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C107" s="4">
-        <v>45239</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="4">
-        <v>45233</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="4">
-        <v>42213</v>
-      </c>
-      <c r="R107" s="4">
-        <v>48944</v>
-      </c>
-      <c r="S107" s="4">
-        <v>48944</v>
-      </c>
-      <c r="T107" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/2.5 Татьянка.xlsx
+++ b/2.5 Татьянка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6cc3664ec3c8aba1/!PROGRAMMING/!WORK/Excel_to_KML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA09E1B-C224-4497-B9D6-5D5F7775086C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D141C4A0-3AD4-4318-98EB-B545BE98C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F7532E-007A-42C5-BDB3-87A2926CDBDA}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{1056619B-0336-4912-B6CF-7FE089808C25}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5 Татьянка" sheetId="1" r:id="rId1"/>
@@ -1676,16 +1676,16 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2072,91 +2072,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715CD54F-3B1D-41DD-A4FA-B385F158C707}">
   <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:20" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="9"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+    <row r="4" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2181,10 +2181,10 @@
       <c r="R4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>153</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>216</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>218</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>386</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>407</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>473</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>737</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>772</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>792</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>817</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>836</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>930</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>972</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>982</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1022</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1036</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1084</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1164</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1201</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1222</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1230</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1231</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1244</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1373</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="216" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1374</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="138" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1377</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1378</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1396</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="216" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1397</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1398</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1461</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="324" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1478</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1525</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1656</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="189" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1854</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1886</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1900</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1959</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1972</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1988</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2009</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2151</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2207</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="324" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2208</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2212</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2226</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2233</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2234</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>2248</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2316</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="216" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="220.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2318</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2334</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>2335</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="138" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2338</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2343</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2355</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2396</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2398</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2407</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2408</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2483</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2531</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2545</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>2615</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2621</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="138" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2640</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2707</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2763</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>2834</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2889</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2901</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2982</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2998</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2999</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>3047</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>3048</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>3197</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>3275</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>3276</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>3284</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>3285</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>3366</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>3373</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>3389</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>3400</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>3412</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>1357</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>1356</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>3682</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="378" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="386.4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>6867</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="243" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>7092</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>7107</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>7380</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>8037</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>8039</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>17426</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>24645</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>30962</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>33694</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>34269</v>
       </c>
@@ -7346,12 +7346,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
@@ -7361,6 +7355,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
